--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1127">
   <si>
     <t>anchor score</t>
   </si>
@@ -361,799 +361,799 @@
     <t>p</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>fiscal</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>intentionally</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>staples</t>
+  </si>
+  <si>
+    <t>reached</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>emails</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>fed</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>brands</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>italy</t>
+  </si>
+  <si>
+    <t>coming</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>council</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>downtown</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>paisley</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t>fiscal</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>rally</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>parking</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>intentionally</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>euro</t>
-  </si>
-  <si>
-    <t>staples</t>
-  </si>
-  <si>
-    <t>reached</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>expectations</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>trust</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>emails</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>fed</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>deliveries</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>future</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>brands</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>wearing</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>italy</t>
-  </si>
-  <si>
-    <t>coming</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>comedy</t>
-  </si>
-  <si>
-    <t>council</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>downtown</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>paisley</t>
-  </si>
-  <si>
-    <t>assure</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>brad</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>mood</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>expectations</t>
-  </si>
-  <si>
-    <t>garden</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>trust</t>
   </si>
   <si>
     <t>appreciation</t>
@@ -3763,7 +3763,7 @@
         <v>113</v>
       </c>
       <c r="J1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -4342,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4392,7 +4392,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4442,7 +4442,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4492,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4542,7 +4542,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4642,7 +4642,7 @@
         <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4692,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -4742,7 +4742,7 @@
         <v>96</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -4942,7 +4942,7 @@
         <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K25">
         <v>0.9333333333333333</v>
@@ -4992,7 +4992,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K26">
         <v>0.9230769230769231</v>
@@ -5042,7 +5042,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K27">
         <v>0.9166666666666666</v>
@@ -5242,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K31">
         <v>0.9090909090909091</v>
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K32">
         <v>0.9</v>
@@ -5342,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K33">
         <v>0.9</v>
@@ -5392,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K34">
         <v>0.8976377952755905</v>
@@ -5692,7 +5692,7 @@
         <v>11</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K40">
         <v>0.875</v>
@@ -5742,7 +5742,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K41">
         <v>0.875</v>
@@ -5842,7 +5842,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K43">
         <v>0.8666666666666667</v>
@@ -5892,7 +5892,7 @@
         <v>12</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K44">
         <v>0.8571428571428571</v>
@@ -5942,7 +5942,7 @@
         <v>7</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K45">
         <v>0.8571428571428571</v>
@@ -5992,7 +5992,7 @@
         <v>4</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K46">
         <v>0.8571428571428571</v>
@@ -6042,7 +6042,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K47">
         <v>0.8571428571428571</v>
@@ -6142,7 +6142,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K49">
         <v>0.8518518518518519</v>
@@ -6242,7 +6242,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K51">
         <v>0.8461538461538461</v>
@@ -6342,7 +6342,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K53">
         <v>0.8375</v>
@@ -6442,7 +6442,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K55">
         <v>0.8333333333333334</v>
@@ -6492,7 +6492,7 @@
         <v>4</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K56">
         <v>0.8333333333333334</v>
@@ -6542,7 +6542,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K57">
         <v>0.8333333333333334</v>
@@ -6592,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K58">
         <v>0.8333333333333334</v>
@@ -6692,7 +6692,7 @@
         <v>2</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K60">
         <v>0.8181818181818182</v>
@@ -6742,7 +6742,7 @@
         <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K61">
         <v>0.8142857142857143</v>
@@ -6792,7 +6792,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K62">
         <v>0.8095238095238095</v>
@@ -6842,7 +6842,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K63">
         <v>0.8070175438596491</v>
@@ -6942,7 +6942,7 @@
         <v>2</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K65">
         <v>0.8</v>
@@ -7092,7 +7092,7 @@
         <v>5</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K68">
         <v>0.7948717948717948</v>
@@ -7192,7 +7192,7 @@
         <v>5</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K70">
         <v>0.7872340425531915</v>
@@ -7242,7 +7242,7 @@
         <v>18</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K71">
         <v>0.7857142857142857</v>
@@ -7292,7 +7292,7 @@
         <v>8</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K72">
         <v>0.7777777777777778</v>
@@ -7392,7 +7392,7 @@
         <v>14</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K74">
         <v>0.7727272727272727</v>
@@ -7442,7 +7442,7 @@
         <v>6</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K75">
         <v>0.75</v>
@@ -7492,7 +7492,7 @@
         <v>15</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K76">
         <v>0.75</v>
@@ -7642,7 +7642,7 @@
         <v>3</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K79">
         <v>0.75</v>
@@ -7692,7 +7692,7 @@
         <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K80">
         <v>0.75</v>
@@ -7742,28 +7742,28 @@
         <v>3</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>115</v>
+        <v>353</v>
       </c>
       <c r="K81">
-        <v>0.748898678414097</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L81">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="M81">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="N81">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -7792,28 +7792,28 @@
         <v>3</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>355</v>
+        <v>126</v>
       </c>
       <c r="K82">
-        <v>0.7450980392156863</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="L82">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M82">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -7842,16 +7842,16 @@
         <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K83">
-        <v>0.7317073170731707</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L83">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M83">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N83">
         <v>0.9399999999999999</v>
@@ -7863,7 +7863,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -7892,28 +7892,28 @@
         <v>3</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="K84">
         <v>0.7272727272727273</v>
       </c>
       <c r="L84">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M84">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N84">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -7942,7 +7942,7 @@
         <v>3</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>356</v>
+        <v>90</v>
       </c>
       <c r="K85">
         <v>0.7272727272727273</v>
@@ -7951,16 +7951,16 @@
         <v>8</v>
       </c>
       <c r="M85">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -7992,7 +7992,7 @@
         <v>3</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K86">
         <v>0.7272727272727273</v>
@@ -8042,7 +8042,7 @@
         <v>3</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K87">
         <v>0.7272727272727273</v>
@@ -8092,28 +8092,28 @@
         <v>10</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="K88">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L88">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M88">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N88">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="O88">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -8142,28 +8142,28 @@
         <v>10</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>116</v>
+        <v>355</v>
       </c>
       <c r="K89">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L89">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M89">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N89">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -8192,7 +8192,7 @@
         <v>58</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K90">
         <v>0.7142857142857143</v>
@@ -8242,16 +8242,16 @@
         <v>7</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K91">
         <v>0.7142857142857143</v>
       </c>
       <c r="L91">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M91">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -8292,7 +8292,7 @@
         <v>14</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K92">
         <v>0.7142857142857143</v>
@@ -8342,16 +8342,16 @@
         <v>7</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K93">
         <v>0.7142857142857143</v>
       </c>
       <c r="L93">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M93">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -8392,7 +8392,7 @@
         <v>8</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K94">
         <v>0.7142857142857143</v>
@@ -8442,7 +8442,7 @@
         <v>4</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>362</v>
+        <v>71</v>
       </c>
       <c r="K95">
         <v>0.7142857142857143</v>
@@ -8451,16 +8451,16 @@
         <v>5</v>
       </c>
       <c r="M95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -8492,7 +8492,7 @@
         <v>4</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="K96">
         <v>0.7142857142857143</v>
@@ -8501,16 +8501,16 @@
         <v>5</v>
       </c>
       <c r="M96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N96">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
         <v>2</v>
@@ -8542,16 +8542,16 @@
         <v>12</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K97">
-        <v>0.7142857142857143</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L97">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="M97">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -8592,7 +8592,7 @@
         <v>8</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K98">
         <v>0.7111111111111111</v>
@@ -8642,7 +8642,7 @@
         <v>4</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K99">
         <v>0.7083333333333334</v>
@@ -8692,7 +8692,7 @@
         <v>4</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K100">
         <v>0.7</v>
@@ -8792,7 +8792,7 @@
         <v>4</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K102">
         <v>0.7</v>
@@ -8842,7 +8842,7 @@
         <v>4</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K103">
         <v>0.696969696969697</v>
@@ -8892,7 +8892,7 @@
         <v>21</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K104">
         <v>0.6956521739130435</v>
@@ -8942,7 +8942,7 @@
         <v>9</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K105">
         <v>0.6666666666666666</v>
@@ -9042,7 +9042,7 @@
         <v>18</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K107">
         <v>0.6666666666666666</v>
@@ -9092,7 +9092,7 @@
         <v>9</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K108">
         <v>0.6666666666666666</v>
@@ -9171,13 +9171,13 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C110">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="E110">
         <v>0.93</v>
@@ -9189,10 +9189,10 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K110">
         <v>0.6666666666666666</v>
@@ -9224,22 +9224,22 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E111">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F111">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>62</v>
@@ -9274,25 +9274,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K112">
         <v>0.6666666666666666</v>
@@ -9342,7 +9342,7 @@
         <v>5</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K113">
         <v>0.6666666666666666</v>
@@ -9392,7 +9392,7 @@
         <v>5</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K114">
         <v>0.6666666666666666</v>
@@ -9427,22 +9427,22 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>5</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K115">
         <v>0.6666666666666666</v>
@@ -9477,13 +9477,13 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F116">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
@@ -9492,7 +9492,7 @@
         <v>5</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K116">
         <v>0.6666666666666666</v>
@@ -9527,13 +9527,13 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F117">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
@@ -9542,7 +9542,7 @@
         <v>5</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K117">
         <v>0.6666666666666666</v>
@@ -9577,22 +9577,22 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>5</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K118">
         <v>0.6571428571428571</v>
@@ -9621,13 +9621,13 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.1666666666666667</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -9639,31 +9639,31 @@
         <v>0</v>
       </c>
       <c r="H119">
+        <v>26</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K119">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L119">
+        <v>9</v>
+      </c>
+      <c r="M119">
+        <v>9</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119">
         <v>5</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K119">
-        <v>0.656441717791411</v>
-      </c>
-      <c r="L119">
-        <v>214</v>
-      </c>
-      <c r="M119">
-        <v>228</v>
-      </c>
-      <c r="N119">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O119">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P119" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q119">
-        <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -9671,28 +9671,28 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.1612903225806452</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>378</v>
+        <v>75</v>
       </c>
       <c r="K120">
         <v>0.6428571428571429</v>
@@ -9701,16 +9701,16 @@
         <v>9</v>
       </c>
       <c r="M120">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="P120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -9727,13 +9727,13 @@
         <v>2</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E121">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F121">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
@@ -9742,28 +9742,28 @@
         <v>11</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="K121">
-        <v>0.6428571428571429</v>
+        <v>0.6421052631578947</v>
       </c>
       <c r="L121">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="M121">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="N121">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="O121">
-        <v>0.18</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P121" t="b">
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -9771,49 +9771,49 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="K122">
-        <v>0.6421052631578947</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L122">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="M122">
-        <v>193</v>
+        <v>8</v>
       </c>
       <c r="N122">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O122">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P122" t="b">
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>102</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -9824,25 +9824,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K123">
         <v>0.6363636363636364</v>
@@ -9874,25 +9874,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>108</v>
+        <v>378</v>
       </c>
       <c r="K124">
         <v>0.6363636363636364</v>
@@ -9901,16 +9901,16 @@
         <v>7</v>
       </c>
       <c r="M124">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N124">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O124">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -9927,43 +9927,43 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>6</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>379</v>
+        <v>98</v>
       </c>
       <c r="K125">
-        <v>0.6363636363636364</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L125">
+        <v>12</v>
+      </c>
+      <c r="M125">
+        <v>14</v>
+      </c>
+      <c r="N125">
+        <v>0.86</v>
+      </c>
+      <c r="O125">
+        <v>0.14</v>
+      </c>
+      <c r="P125" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q125">
         <v>7</v>
-      </c>
-      <c r="M125">
-        <v>7</v>
-      </c>
-      <c r="N125">
-        <v>1</v>
-      </c>
-      <c r="O125">
-        <v>0</v>
-      </c>
-      <c r="P125" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q125">
-        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -9977,13 +9977,13 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E126">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F126">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
@@ -9992,28 +9992,28 @@
         <v>6</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="K126">
-        <v>0.631578947368421</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L126">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M126">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N126">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O126">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P126" t="b">
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -10021,49 +10021,49 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.1428571428571428</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D127">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E127">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>6</v>
+        <v>444</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>169</v>
+        <v>379</v>
       </c>
       <c r="K127">
-        <v>0.6296296296296297</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L127">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="M127">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="N127">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O127">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127">
-        <v>10</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -10071,13 +10071,13 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.1395348837209302</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C128">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>444</v>
+        <v>13</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>87</v>
@@ -10124,22 +10124,22 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>380</v>
@@ -10174,25 +10174,25 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E130">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F130">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K130">
         <v>0.625</v>
@@ -10221,25 +10221,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.1333333333333333</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D131">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="E131">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>381</v>
@@ -10271,13 +10271,13 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>382</v>
@@ -10324,10 +10324,10 @@
         <v>0.125</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>383</v>
@@ -10374,25 +10374,25 @@
         <v>0.125</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K134">
         <v>0.6052631578947368</v>
@@ -10427,13 +10427,13 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E135">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F135">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
@@ -10477,13 +10477,13 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E136">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F136">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
@@ -10527,16 +10527,16 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
         <v>7</v>
@@ -10577,16 +10577,16 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>7</v>
@@ -10627,13 +10627,13 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E139">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F139">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
@@ -10674,22 +10674,22 @@
         <v>0.125</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E140">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F140">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>386</v>
@@ -10721,25 +10721,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D141">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="E141">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F141">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>56</v>
@@ -10774,22 +10774,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C142">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="E142">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F142">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>57</v>
@@ -10824,22 +10824,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="E143">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="F143">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>387</v>
@@ -10874,22 +10874,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>111</v>
@@ -10927,13 +10927,13 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E145">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F145">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
@@ -10971,25 +10971,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>389</v>
@@ -11021,25 +11021,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E147">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>88</v>
@@ -11071,25 +11071,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E148">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F148">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>390</v>
@@ -11124,22 +11124,22 @@
         <v>0.1</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>391</v>
@@ -11177,13 +11177,13 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F150">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
@@ -11192,7 +11192,7 @@
         <v>9</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K150">
         <v>0.5666666666666667</v>
@@ -11227,16 +11227,16 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>9</v>
@@ -11277,22 +11277,22 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
         <v>9</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K152">
         <v>0.5641025641025641</v>
@@ -11327,16 +11327,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>9</v>
@@ -11392,7 +11392,7 @@
         <v>9</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K154">
         <v>0.5555555555555556</v>
@@ -11421,25 +11421,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.1</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D155">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E155">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>394</v>
@@ -11471,7 +11471,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>395</v>
@@ -11521,25 +11521,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.09803921568627451</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C157">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>396</v>
@@ -11577,16 +11577,16 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
         <v>10</v>
@@ -11627,16 +11627,16 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>10</v>
@@ -11677,13 +11677,13 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F160">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
@@ -11727,16 +11727,16 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
         <v>10</v>
@@ -11777,13 +11777,13 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E162">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F162">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
@@ -11792,7 +11792,7 @@
         <v>10</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K162">
         <v>0.5348837209302325</v>
@@ -11821,25 +11821,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.09090909090909091</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="E163">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F163">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>401</v>
@@ -11871,25 +11871,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>402</v>
@@ -11921,25 +11921,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.08928571428571429</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C165">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>403</v>
@@ -11977,16 +11977,16 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
         <v>11</v>
@@ -12027,16 +12027,16 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
         <v>11</v>
@@ -12077,13 +12077,13 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E168">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F168">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
@@ -12127,13 +12127,13 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F169">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
@@ -12177,22 +12177,22 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <v>11</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K170">
         <v>0.5</v>
@@ -12227,13 +12227,13 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E171">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F171">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
@@ -12242,7 +12242,7 @@
         <v>11</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K171">
         <v>0.5</v>
@@ -12321,25 +12321,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>409</v>
@@ -12371,7 +12371,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -12389,7 +12389,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>410</v>
@@ -12421,13 +12421,13 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -12439,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>411</v>
@@ -12471,25 +12471,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>412</v>
@@ -12521,25 +12521,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>413</v>
@@ -12574,22 +12574,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>414</v>
@@ -12627,13 +12627,13 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E179">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F179">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
@@ -12677,16 +12677,16 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
         <v>13</v>
@@ -12727,13 +12727,13 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="E181">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F181">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
@@ -12777,13 +12777,13 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E182">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F182">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
@@ -12827,16 +12827,16 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>13</v>
@@ -12971,25 +12971,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.07142857142857142</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D186">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E186">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F186">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>421</v>
@@ -13021,7 +13021,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -13039,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>422</v>
@@ -13071,25 +13071,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.06976744186046512</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>97</v>
@@ -13121,13 +13121,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -13139,10 +13139,10 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K189">
         <v>0.48</v>
@@ -13171,28 +13171,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K190">
         <v>0.48</v>
@@ -13221,28 +13221,28 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K191">
         <v>0.4761904761904762</v>
@@ -13277,22 +13277,22 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
         <v>15</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K192">
         <v>0.4705882352941176</v>
@@ -13327,13 +13327,13 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F193">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
@@ -13421,25 +13421,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E195">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F195">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>424</v>
@@ -13471,25 +13471,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>425</v>
@@ -13577,13 +13577,13 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E198">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F198">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
@@ -13621,25 +13621,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E199">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>428</v>
@@ -13671,25 +13671,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E200">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F200">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>429</v>
@@ -13727,22 +13727,22 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
         <v>17</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K201">
         <v>0.4318181818181818</v>
@@ -13771,25 +13771,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.05555555555555555</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E202">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>430</v>
@@ -13821,25 +13821,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>431</v>
@@ -13871,13 +13871,13 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.05454545454545454</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>107</v>
@@ -13927,16 +13927,16 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
         <v>18</v>
@@ -13977,16 +13977,16 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
         <v>18</v>
@@ -14027,16 +14027,16 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
         <v>18</v>
@@ -14071,25 +14071,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.05263157894736842</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D208">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>435</v>
@@ -14121,25 +14121,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>436</v>
@@ -14171,28 +14171,28 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.05194805194805195</v>
+        <v>0.05</v>
       </c>
       <c r="C210">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K210">
         <v>0.4210526315789473</v>
@@ -14227,13 +14227,13 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E211">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F211">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
@@ -14242,7 +14242,7 @@
         <v>19</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K211">
         <v>0.4210526315789473</v>
@@ -14271,25 +14271,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>437</v>
@@ -14321,28 +14321,28 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.05</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E213">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K213">
         <v>0.4166666666666667</v>
@@ -14371,25 +14371,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.04761904761904762</v>
+        <v>0.04</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>438</v>
@@ -14421,28 +14421,28 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K215">
         <v>0.40625</v>
@@ -14477,13 +14477,13 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E216">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F216">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
@@ -14524,22 +14524,22 @@
         <v>0.04</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>86</v>
@@ -14571,25 +14571,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E218">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F218">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>439</v>
@@ -14621,25 +14621,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>440</v>
@@ -14677,16 +14677,16 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
         <v>25</v>
@@ -14721,25 +14721,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E221">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F221">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>442</v>
@@ -14771,25 +14771,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.03846153846153846</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>443</v>
@@ -14821,28 +14821,28 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K223">
         <v>0.3846153846153846</v>
@@ -14871,25 +14871,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E224">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F224">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>444</v>
@@ -14921,25 +14921,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>445</v>
@@ -14971,25 +14971,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.03448275862068965</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E226">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F226">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>446</v>
@@ -15021,25 +15021,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E227">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>447</v>
@@ -15071,25 +15071,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.03389830508474576</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E228">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F228">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>448</v>
@@ -15121,25 +15121,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.03333333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>449</v>
@@ -15171,7 +15171,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -15189,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>450</v>
@@ -15221,25 +15221,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E231">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>451</v>
@@ -15271,28 +15271,28 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E232">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F232">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K232">
         <v>0.375</v>
@@ -15342,7 +15342,7 @@
         <v>33</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K233">
         <v>0.3703703703703703</v>
@@ -15377,22 +15377,22 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
         <v>33</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K234">
         <v>0.3666666666666666</v>
@@ -15421,25 +15421,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>452</v>
@@ -15471,28 +15471,28 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K236">
         <v>0.3636363636363636</v>
@@ -15521,25 +15521,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E237">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>114</v>
@@ -15571,25 +15571,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>453</v>
@@ -15621,28 +15621,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K239">
         <v>0.3636363636363636</v>
@@ -15671,25 +15671,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.02631578947368421</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>454</v>
@@ -15721,25 +15721,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>455</v>
@@ -15771,28 +15771,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.02597402597402598</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C242">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E242">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F242">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K242">
         <v>0.3611111111111111</v>
@@ -15827,16 +15827,16 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
         <v>38</v>
@@ -15871,28 +15871,28 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E244">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F244">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K244">
         <v>0.3571428571428572</v>
@@ -15921,25 +15921,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.02564102564102564</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E245">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F245">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>457</v>
@@ -15971,25 +15971,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E246">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F246">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>458</v>
@@ -16021,28 +16021,28 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E247">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F247">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K247">
         <v>0.3571428571428572</v>
@@ -16071,25 +16071,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E248">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F248">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>110</v>
@@ -16121,25 +16121,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E249">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F249">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>459</v>
@@ -16171,25 +16171,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.02325581395348837</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E250">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F250">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>460</v>
@@ -16221,25 +16221,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.02272727272727273</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E251">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F251">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>461</v>
@@ -16271,25 +16271,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.02173913043478261</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E252">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F252">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>462</v>
@@ -16321,25 +16321,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.02127659574468085</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E253">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F253">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>463</v>
@@ -16371,28 +16371,28 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.02105263157894737</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C254">
         <v>2</v>
       </c>
       <c r="D254">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E254">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F254">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K254">
         <v>0.3473684210526316</v>
@@ -16421,25 +16421,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0198019801980198</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D255">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="E255">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F255">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>464</v>
@@ -16471,25 +16471,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0198019801980198</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E256">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F256">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>465</v>
@@ -16521,25 +16521,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C257">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="E257">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F257">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>466</v>
@@ -16571,25 +16571,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01923076923076923</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D258">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E258">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="F258">
-        <v>0.14</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>467</v>
@@ -16621,25 +16621,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E259">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F259">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>468</v>
@@ -16671,25 +16671,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01904761904761905</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E260">
-        <v>0.33</v>
+        <v>0.89</v>
       </c>
       <c r="F260">
-        <v>0.6699999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>469</v>
@@ -16721,25 +16721,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.01886792452830189</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E261">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>470</v>
@@ -16771,25 +16771,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E262">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F262">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>77</v>
@@ -16821,25 +16821,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01694915254237288</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>471</v>
@@ -16871,25 +16871,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E264">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F264">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>472</v>
@@ -16921,25 +16921,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.01639344262295082</v>
+        <v>0.015625</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E265">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F265">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>473</v>
@@ -16971,25 +16971,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E266">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F266">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>474</v>
@@ -17021,13 +17021,13 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.015625</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -17039,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="H267">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>475</v>
@@ -17071,25 +17071,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.01538461538461539</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D268">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="E268">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F268">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>64</v>
+        <v>304</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>476</v>
@@ -17121,25 +17121,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01342281879194631</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D269">
         <v>2</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>477</v>
@@ -17171,25 +17171,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.01298701298701299</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
         <v>4</v>
       </c>
-      <c r="D270">
-        <v>114</v>
-      </c>
       <c r="E270">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F270">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>304</v>
+        <v>85</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>105</v>
@@ -17221,25 +17221,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.01176470588235294</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E271">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F271">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>478</v>
@@ -17271,25 +17271,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.01162790697674419</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E272">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F272">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>103</v>
@@ -17321,25 +17321,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.01111111111111111</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>479</v>
@@ -17371,25 +17371,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.01098901098901099</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E274">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F274">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>101</v>
@@ -17421,25 +17421,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.01041666666666667</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E275">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F275">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>480</v>
@@ -17471,25 +17471,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.009523809523809525</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E276">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F276">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>481</v>
@@ -17521,25 +17521,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.008849557522123894</v>
+        <v>0.008</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E277">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F277">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>482</v>
@@ -17571,25 +17571,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.008064516129032258</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E278">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F278">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>483</v>
@@ -17621,28 +17621,28 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.008</v>
+        <v>0.007712082262210797</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D279">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="E279">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F279">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>124</v>
+        <v>772</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K279">
         <v>0.3170731707317073</v>
@@ -17671,25 +17671,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.007874015748031496</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E280">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F280">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>484</v>
@@ -17721,25 +17721,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.007712082262210797</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="C281">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E281">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F281">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>772</v>
+        <v>145</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>485</v>
@@ -17771,25 +17771,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.007194244604316547</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E282">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F282">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>486</v>
@@ -17821,28 +17821,28 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.00684931506849315</v>
+        <v>0.006557377049180328</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D283">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E283">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F283">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>145</v>
+        <v>303</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K283">
         <v>0.3076923076923077</v>
@@ -17871,25 +17871,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.00684931506849315</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E284">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F284">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>487</v>
@@ -17921,25 +17921,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.006557377049180328</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E285">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F285">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H285">
-        <v>303</v>
+        <v>165</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>488</v>
@@ -17971,28 +17971,28 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.006369426751592357</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E286">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F286">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K286">
         <v>0.3043478260869565</v>
@@ -18021,28 +18021,28 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.006024096385542169</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="C287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F287">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H287">
-        <v>165</v>
+        <v>342</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K287">
         <v>0.3043478260869565</v>
@@ -18071,25 +18071,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.005952380952380952</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E288">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F288">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>489</v>
@@ -18121,25 +18121,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.005813953488372093</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="C289">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D289">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="E289">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F289">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>342</v>
+        <v>621</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>490</v>
@@ -18171,25 +18171,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.005649717514124294</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E290">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F290">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>491</v>
@@ -18221,25 +18221,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.004807692307692308</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
         <v>3</v>
       </c>
-      <c r="D291">
-        <v>29</v>
-      </c>
       <c r="E291">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F291">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>621</v>
+        <v>227</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>492</v>
@@ -18271,25 +18271,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.004444444444444444</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E292">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F292">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H292">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>493</v>
@@ -18321,25 +18321,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.004385964912280702</v>
+        <v>0.003731343283582089</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D293">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E293">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F293">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>227</v>
+        <v>801</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>494</v>
@@ -18371,25 +18371,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.003968253968253968</v>
+        <v>0.003584229390681004</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F294">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>495</v>
@@ -18421,25 +18421,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.003731343283582089</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="C295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D295">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E295">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F295">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>801</v>
+        <v>291</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>496</v>
@@ -18471,25 +18471,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.003584229390681004</v>
+        <v>0.002680965147453083</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E296">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F296">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H296">
-        <v>278</v>
+        <v>372</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>497</v>
@@ -18521,25 +18521,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.003424657534246575</v>
+        <v>0.002638522427440633</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D297">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E297">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F297">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>291</v>
+        <v>1134</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>498</v>
@@ -18571,25 +18571,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.002680965147453083</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D298">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="E298">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F298">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H298">
-        <v>372</v>
+        <v>2030</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>499</v>
@@ -18621,25 +18621,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.002638522427440633</v>
+        <v>0.001886792452830189</v>
       </c>
       <c r="C299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E299">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F299">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>1134</v>
+        <v>529</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>500</v>
@@ -18671,28 +18671,28 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.002457002457002457</v>
+        <v>0.001869158878504673</v>
       </c>
       <c r="C300">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D300">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="E300">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F300">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>2030</v>
+        <v>534</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K300">
         <v>0.293103448275862</v>
@@ -18721,13 +18721,13 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.001886792452830189</v>
+        <v>0.001346801346801347</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D301">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="E301">
         <v>0.97</v>
@@ -18739,7 +18739,7 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>529</v>
+        <v>2966</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>501</v>
@@ -18771,25 +18771,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.001869158878504673</v>
+        <v>0.001184834123222749</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E302">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F302">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>534</v>
+        <v>843</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>502</v>
@@ -18821,28 +18821,28 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.001346801346801347</v>
+        <v>0.001042752867570386</v>
       </c>
       <c r="C303">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D303">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="E303">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F303">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>2966</v>
+        <v>958</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K303">
         <v>0.2890995260663507</v>
@@ -18871,25 +18871,25 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.001184834123222749</v>
+        <v>0.0006379585326953748</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D304">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E304">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F304">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>843</v>
+        <v>3133</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>503</v>
@@ -18916,31 +18916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
-      <c r="A305" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B305">
-        <v>0.001042752867570386</v>
-      </c>
-      <c r="C305">
-        <v>1</v>
-      </c>
-      <c r="D305">
-        <v>10</v>
-      </c>
-      <c r="E305">
-        <v>0.9</v>
-      </c>
-      <c r="F305">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="G305" t="b">
-        <v>1</v>
-      </c>
-      <c r="H305">
-        <v>958</v>
-      </c>
+    <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
         <v>504</v>
       </c>
@@ -18966,31 +18942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
-      <c r="A306" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B306">
-        <v>0.0006379585326953748</v>
-      </c>
-      <c r="C306">
-        <v>2</v>
-      </c>
-      <c r="D306">
-        <v>68</v>
-      </c>
-      <c r="E306">
-        <v>0.97</v>
-      </c>
-      <c r="F306">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G306" t="b">
-        <v>1</v>
-      </c>
-      <c r="H306">
-        <v>3133</v>
-      </c>
+    <row r="306" spans="10:17">
       <c r="J306" s="1" t="s">
         <v>505</v>
       </c>
@@ -19016,7 +18968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
         <v>506</v>
       </c>
@@ -19042,7 +18994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
         <v>507</v>
       </c>
@@ -19068,7 +19020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
         <v>508</v>
       </c>
@@ -19094,9 +19046,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K310">
         <v>0.2857142857142857</v>
@@ -19120,7 +19072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
         <v>509</v>
       </c>
@@ -19146,7 +19098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
         <v>510</v>
       </c>
@@ -19172,7 +19124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
         <v>511</v>
       </c>
@@ -19198,7 +19150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
         <v>512</v>
       </c>
@@ -19224,7 +19176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
         <v>513</v>
       </c>
@@ -19250,7 +19202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="10:17">
       <c r="J316" s="1" t="s">
         <v>514</v>
       </c>
@@ -19276,7 +19228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="10:17">
       <c r="J317" s="1" t="s">
         <v>515</v>
       </c>
@@ -19302,7 +19254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="10:17">
       <c r="J318" s="1" t="s">
         <v>516</v>
       </c>
@@ -19328,7 +19280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="10:17">
       <c r="J319" s="1" t="s">
         <v>517</v>
       </c>
@@ -19354,7 +19306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="10:17">
       <c r="J320" s="1" t="s">
         <v>518</v>
       </c>
@@ -19434,7 +19386,7 @@
     </row>
     <row r="323" spans="10:17">
       <c r="J323" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K323">
         <v>0.2692307692307692</v>
@@ -19538,7 +19490,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K327">
         <v>0.2657004830917875</v>
@@ -20032,7 +19984,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K346">
         <v>0.2442748091603053</v>
@@ -20110,7 +20062,7 @@
     </row>
     <row r="349" spans="10:17">
       <c r="J349" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K349">
         <v>0.2340425531914894</v>
@@ -20188,7 +20140,7 @@
     </row>
     <row r="352" spans="10:17">
       <c r="J352" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K352">
         <v>0.2307692307692308</v>
@@ -20604,7 +20556,7 @@
     </row>
     <row r="368" spans="10:17">
       <c r="J368" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K368">
         <v>0.2222222222222222</v>
@@ -20630,7 +20582,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K369">
         <v>0.2215189873417721</v>
@@ -20734,7 +20686,7 @@
     </row>
     <row r="373" spans="10:17">
       <c r="J373" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K373">
         <v>0.2142857142857143</v>
@@ -21176,7 +21128,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K390">
         <v>0.2</v>
@@ -21566,7 +21518,7 @@
     </row>
     <row r="405" spans="10:17">
       <c r="J405" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K405">
         <v>0.1891891891891892</v>
@@ -21670,7 +21622,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K409">
         <v>0.1830985915492958</v>
@@ -21696,7 +21648,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K410">
         <v>0.1818181818181818</v>
@@ -21904,7 +21856,7 @@
     </row>
     <row r="418" spans="10:17">
       <c r="J418" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K418">
         <v>0.1818181818181818</v>
@@ -22060,7 +22012,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K424">
         <v>0.1794871794871795</v>
@@ -22086,7 +22038,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K425">
         <v>0.1774193548387097</v>
@@ -22268,7 +22220,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K432">
         <v>0.1739130434782609</v>
@@ -22294,7 +22246,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K433">
         <v>0.1739130434782609</v>
@@ -22450,7 +22402,7 @@
     </row>
     <row r="439" spans="10:17">
       <c r="J439" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K439">
         <v>0.1666666666666667</v>
@@ -22606,7 +22558,7 @@
     </row>
     <row r="445" spans="10:17">
       <c r="J445" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K445">
         <v>0.1666666666666667</v>
@@ -22944,7 +22896,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K458">
         <v>0.1666666666666667</v>
@@ -23204,7 +23156,7 @@
     </row>
     <row r="468" spans="10:17">
       <c r="J468" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K468">
         <v>0.1666666666666667</v>
@@ -23516,7 +23468,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K480">
         <v>0.1545454545454545</v>
@@ -23594,7 +23546,7 @@
     </row>
     <row r="483" spans="10:17">
       <c r="J483" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K483">
         <v>0.1538461538461539</v>
@@ -23750,7 +23702,7 @@
     </row>
     <row r="489" spans="10:17">
       <c r="J489" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K489">
         <v>0.1538461538461539</v>
@@ -23854,7 +23806,7 @@
     </row>
     <row r="493" spans="10:17">
       <c r="J493" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K493">
         <v>0.1515151515151515</v>
@@ -23906,7 +23858,7 @@
     </row>
     <row r="495" spans="10:17">
       <c r="J495" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K495">
         <v>0.15</v>
@@ -24660,7 +24612,7 @@
     </row>
     <row r="524" spans="10:17">
       <c r="J524" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K524">
         <v>0.1428571428571428</v>
@@ -24920,7 +24872,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K534">
         <v>0.1379310344827586</v>
@@ -25050,7 +25002,7 @@
     </row>
     <row r="539" spans="10:17">
       <c r="J539" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K539">
         <v>0.1363636363636364</v>
@@ -25128,7 +25080,7 @@
     </row>
     <row r="542" spans="10:17">
       <c r="J542" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K542">
         <v>0.1333333333333333</v>
@@ -25180,7 +25132,7 @@
     </row>
     <row r="544" spans="10:17">
       <c r="J544" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K544">
         <v>0.1333333333333333</v>
@@ -25232,7 +25184,7 @@
     </row>
     <row r="546" spans="10:17">
       <c r="J546" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K546">
         <v>0.1306306306306306</v>
@@ -26246,7 +26198,7 @@
     </row>
     <row r="585" spans="10:17">
       <c r="J585" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K585">
         <v>0.125</v>
@@ -26350,7 +26302,7 @@
     </row>
     <row r="589" spans="10:17">
       <c r="J589" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K589">
         <v>0.1230769230769231</v>
@@ -26376,7 +26328,7 @@
     </row>
     <row r="590" spans="10:17">
       <c r="J590" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K590">
         <v>0.1230769230769231</v>
@@ -26636,7 +26588,7 @@
     </row>
     <row r="600" spans="10:17">
       <c r="J600" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K600">
         <v>0.1176470588235294</v>
@@ -26870,7 +26822,7 @@
     </row>
     <row r="609" spans="10:17">
       <c r="J609" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K609">
         <v>0.1111111111111111</v>
@@ -26974,7 +26926,7 @@
     </row>
     <row r="613" spans="10:17">
       <c r="J613" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K613">
         <v>0.1111111111111111</v>
@@ -27442,7 +27394,7 @@
     </row>
     <row r="631" spans="10:17">
       <c r="J631" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K631">
         <v>0.1080178173719376</v>
@@ -27468,7 +27420,7 @@
     </row>
     <row r="632" spans="10:17">
       <c r="J632" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K632">
         <v>0.107981220657277</v>
@@ -27546,7 +27498,7 @@
     </row>
     <row r="635" spans="10:17">
       <c r="J635" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K635">
         <v>0.1063829787234043</v>
@@ -27598,7 +27550,7 @@
     </row>
     <row r="637" spans="10:17">
       <c r="J637" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K637">
         <v>0.1052631578947368</v>
@@ -27676,7 +27628,7 @@
     </row>
     <row r="640" spans="10:17">
       <c r="J640" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K640">
         <v>0.1049382716049383</v>
@@ -27728,7 +27680,7 @@
     </row>
     <row r="642" spans="10:17">
       <c r="J642" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K642">
         <v>0.103448275862069</v>
@@ -27780,7 +27732,7 @@
     </row>
     <row r="644" spans="10:17">
       <c r="J644" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K644">
         <v>0.1</v>
@@ -28638,7 +28590,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K677">
         <v>0.09090909090909091</v>
@@ -28664,7 +28616,7 @@
     </row>
     <row r="678" spans="10:17">
       <c r="J678" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K678">
         <v>0.09090909090909091</v>
@@ -29444,7 +29396,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K708">
         <v>0.08227848101265822</v>
@@ -30016,7 +29968,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K730">
         <v>0.07142857142857142</v>
@@ -30276,7 +30228,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K740">
         <v>0.06818181818181818</v>
@@ -30302,7 +30254,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K741">
         <v>0.06769230769230769</v>
@@ -30588,7 +30540,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K752">
         <v>0.06537102473498234</v>
@@ -30614,7 +30566,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K753">
         <v>0.06521739130434782</v>
@@ -30744,7 +30696,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K758">
         <v>0.0625</v>
@@ -31004,7 +30956,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K768">
         <v>0.06153846153846154</v>
@@ -31212,7 +31164,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K776">
         <v>0.05882352941176471</v>
@@ -31706,7 +31658,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K795">
         <v>0.0547945205479452</v>
@@ -31732,7 +31684,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K796">
         <v>0.05454545454545454</v>
@@ -31810,7 +31762,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K799">
         <v>0.05405405405405406</v>
@@ -32096,7 +32048,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K810">
         <v>0.05211726384364821</v>
@@ -32200,7 +32152,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K814">
         <v>0.05084745762711865</v>
@@ -32226,7 +32178,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K815">
         <v>0.05051449953227315</v>
@@ -32460,7 +32412,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K824">
         <v>0.04878048780487805</v>
@@ -32876,7 +32828,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K840">
         <v>0.04545454545454546</v>
@@ -32980,7 +32932,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K844">
         <v>0.044150821785369</v>
@@ -33006,7 +32958,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K845">
         <v>0.04347826086956522</v>
@@ -33396,7 +33348,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K860">
         <v>0.0401854714064915</v>
@@ -33578,7 +33530,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K867">
         <v>0.04</v>
@@ -33968,7 +33920,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K882">
         <v>0.03703703703703703</v>
@@ -34358,7 +34310,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K897">
         <v>0.03571428571428571</v>
@@ -34566,7 +34518,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K905">
         <v>0.03409090909090909</v>
@@ -34826,7 +34778,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K915">
         <v>0.03225806451612903</v>
@@ -35138,7 +35090,7 @@
     </row>
     <row r="927" spans="10:17">
       <c r="J927" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K927">
         <v>0.02941176470588235</v>
@@ -35294,7 +35246,7 @@
     </row>
     <row r="933" spans="10:17">
       <c r="J933" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K933">
         <v>0.02857142857142857</v>
@@ -35450,7 +35402,7 @@
     </row>
     <row r="939" spans="10:17">
       <c r="J939" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K939">
         <v>0.02655889145496536</v>
@@ -35528,7 +35480,7 @@
     </row>
     <row r="942" spans="10:17">
       <c r="J942" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K942">
         <v>0.02631578947368421</v>
@@ -35788,7 +35740,7 @@
     </row>
     <row r="952" spans="10:17">
       <c r="J952" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K952">
         <v>0.02362204724409449</v>
@@ -36178,7 +36130,7 @@
     </row>
     <row r="967" spans="10:17">
       <c r="J967" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K967">
         <v>0.02072538860103627</v>
@@ -36204,7 +36156,7 @@
     </row>
     <row r="968" spans="10:17">
       <c r="J968" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K968">
         <v>0.02063144732728978</v>
@@ -36386,7 +36338,7 @@
     </row>
     <row r="975" spans="10:17">
       <c r="J975" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K975">
         <v>0.01838235294117647</v>
@@ -36490,7 +36442,7 @@
     </row>
     <row r="979" spans="10:17">
       <c r="J979" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K979">
         <v>0.01764705882352941</v>
@@ -37114,7 +37066,7 @@
     </row>
     <row r="1003" spans="10:17">
       <c r="J1003" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K1003">
         <v>0.01176470588235294</v>
@@ -37296,7 +37248,7 @@
     </row>
     <row r="1010" spans="10:17">
       <c r="J1010" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K1010">
         <v>0.009615384615384616</v>
@@ -37322,7 +37274,7 @@
     </row>
     <row r="1011" spans="10:17">
       <c r="J1011" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K1011">
         <v>0.009307135470527405</v>
@@ -37374,7 +37326,7 @@
     </row>
     <row r="1013" spans="10:17">
       <c r="J1013" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K1013">
         <v>0.008733624454148471</v>
@@ -37426,7 +37378,7 @@
     </row>
     <row r="1015" spans="10:17">
       <c r="J1015" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K1015">
         <v>0.007874015748031496</v>
@@ -37452,7 +37404,7 @@
     </row>
     <row r="1016" spans="10:17">
       <c r="J1016" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K1016">
         <v>0.007142857142857143</v>
